--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>2012</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>

--- a/input/DatabaseCountryYear.xlsx
+++ b/input/DatabaseCountryYear.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
